--- a/CAN_RX_MSGOBJ Layout.xlsx
+++ b/CAN_RX_MSGOBJ Layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LYSGZS\DfConnector-V2\learning-enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E095A008-391B-492A-BAF6-A208F532F6A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E22CC9-E230-436C-9C1C-862CE80DD70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{C5EB8B7B-9F05-4AB8-A515-FB8E8CFA5FA0}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="23040" windowHeight="12312" xr2:uid="{C5EB8B7B-9F05-4AB8-A515-FB8E8CFA5FA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>DLC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,42 @@
   </si>
   <si>
     <t>Little Endian Layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN_TX_MSGOBJ_CTRL</t>
+  </si>
+  <si>
+    <t>SEQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unimplemented1</t>
+  </si>
+  <si>
+    <t>CAN_FILTEROBJ_ID</t>
+  </si>
+  <si>
+    <t>EIDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAN_MASKOBJ_ID</t>
+  </si>
+  <si>
+    <t>MID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIDE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSID11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,14 +193,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A994B89-9F63-4780-B09B-7DBCF40F0856}">
-  <dimension ref="A13:AG16"/>
+  <dimension ref="A13:AG23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.81640625" defaultRowHeight="16.2" x14ac:dyDescent="0.35"/>
@@ -492,43 +528,43 @@
     <col min="2" max="33" width="4.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:33" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>0</v>
       </c>
@@ -626,116 +662,274 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="4" t="s">
+      <c r="X15" s="4"/>
+      <c r="Y15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="4" t="s">
+      <c r="Z15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AA15" s="4" t="s">
+      <c r="AA15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AB15" s="4" t="s">
+      <c r="AB15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AC15" s="4" t="s">
+      <c r="AC15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AD15" s="3" t="s">
+      <c r="AD15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
     </row>
+    <row r="17" spans="1:33" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+    </row>
+    <row r="18" spans="1:33" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+    </row>
+    <row r="19" spans="1:33" ht="24.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+    </row>
+    <row r="20" spans="1:33" ht="24.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:33" ht="24.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:33" ht="24.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:33" ht="24.6" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="15">
+    <mergeCell ref="W18:AG18"/>
+    <mergeCell ref="E18:V18"/>
+    <mergeCell ref="W19:AG19"/>
+    <mergeCell ref="E19:V19"/>
+    <mergeCell ref="W16:AG16"/>
+    <mergeCell ref="E16:V16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="R17:X17"/>
+    <mergeCell ref="B17:Q17"/>
     <mergeCell ref="B13:AG13"/>
     <mergeCell ref="AD15:AG15"/>
     <mergeCell ref="W15:X15"/>
     <mergeCell ref="R15:V15"/>
     <mergeCell ref="B15:Q15"/>
-    <mergeCell ref="W16:AG16"/>
-    <mergeCell ref="E16:V16"/>
-    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
